--- a/biology/Zoologie/Brasiliogomphus_uniseries/Brasiliogomphus_uniseries.xlsx
+++ b/biology/Zoologie/Brasiliogomphus_uniseries/Brasiliogomphus_uniseries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brasiliogomphus uniseries  est une espèce monotypique de libellules de la famille des Gomphidae (ordres des Odonates, sous-ordre des Anisoptères[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasiliogomphus uniseries  est une espèce monotypique de libellules de la famille des Gomphidae (ordres des Odonates, sous-ordre des Anisoptères).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est mentionnée au Brésil[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est mentionnée au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Brasiliogomphus uniseries, une femelle dont l'abdomen est endommagé entre les segments 5 et 6, mesure 37 mm dont 29 mm pour l'abdomen[4]. Ses ailes postérieures mesurent 26 mm[4]. Sa teinte générale est jaune[4]. Les mâles et les larves ne sont pas connus[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Brasiliogomphus uniseries, une femelle dont l'abdomen est endommagé entre les segments 5 et 6, mesure 37 mm dont 29 mm pour l'abdomen. Ses ailes postérieures mesurent 26 mm. Sa teinte générale est jaune. Les mâles et les larves ne sont pas connus.
 L'holotype a été découvert dans les environs de Lins (État de São Paulo).
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jean Belle, « On the female sex of some elusive South-­American Gomphidae with the descriptions of three new genera and four new species (Odonata) », Zoologische Mededelingen, NBC, vol. 69, no 2,‎ 1995, p. 19-36 (ISSN 0024-0672 et 1876-2174, OCLC 212304577, lire en ligne)</t>
         </is>
